--- a/upload_file_txt/input.xlsx
+++ b/upload_file_txt/input.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,78 @@
   </si>
   <si>
     <t>2018-11-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000017</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,212 +498,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/upload_file_txt/input.xlsx
+++ b/upload_file_txt/input.xlsx
@@ -1,83 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hlyyinif/Desktop/github/test/upload_file_txt/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>王五</t>
-  </si>
-  <si>
-    <t>马六</t>
-  </si>
-  <si>
-    <t>郑七</t>
-  </si>
-  <si>
-    <t>龙九</t>
-  </si>
-  <si>
-    <t>宋三</t>
-  </si>
-  <si>
-    <t>朱五</t>
-  </si>
-  <si>
-    <t>黄某</t>
-  </si>
-  <si>
-    <t>西三</t>
-  </si>
-  <si>
-    <t>孙八</t>
-  </si>
-  <si>
-    <t>白清</t>
-  </si>
-  <si>
-    <t>易思</t>
-  </si>
-  <si>
-    <t>商务</t>
-  </si>
-  <si>
-    <t>飒飒</t>
-  </si>
-  <si>
-    <t>的观点</t>
-  </si>
-  <si>
     <t>2018-11-07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,71 +40,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000017</t>
+    <t>名称</t>
+    <rPh sb="0" eb="1">
+      <t>ming'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600596</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新安股份</t>
+    <rPh sb="0" eb="1">
+      <t>xin'an'gu'fe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+    <rPh sb="0" eb="1">
+      <t>gui'zhou'mao'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神马股份</t>
+    <rPh sb="0" eb="1">
+      <t>shen'ma'gu'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600487</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亨通光电</t>
+    <rPh sb="0" eb="1">
+      <t>heng'tong'guang'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000725</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东方</t>
+    <rPh sb="0" eb="1">
+      <t>jing'dong'fang</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,13 +118,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -212,7 +168,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -254,12 +210,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -289,12 +245,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -498,268 +454,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>30</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>19</v>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +556,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -788,7 +569,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
